--- a/Auto-Eval-ASI-D1.xlsx
+++ b/Auto-Eval-ASI-D1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tperr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D057AF-5144-47B9-AADD-AA748E132559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,17 @@
     <definedName name="Note">admin!$A$1:$A$6</definedName>
     <definedName name="Notes">admin!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -382,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +433,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,14 +777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="D1" s="1" t="s">
@@ -927,7 +962,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:19" ht="48.75">
+    <row r="7" spans="1:19" ht="36.6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="15" t="s">
@@ -963,14 +998,14 @@
       <c r="M7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>12</v>
+      <c r="N7" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="72.75">
+    <row r="8" spans="1:19" ht="60.6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="15" t="s">
@@ -1007,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="24.75">
+    <row r="9" spans="1:19" ht="24.6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="15" t="s">
@@ -1050,13 +1085,13 @@
         <v>12</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="48.75">
+    <row r="10" spans="1:19" ht="36.6">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="15" t="s">
@@ -1093,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="24.75">
+    <row r="11" spans="1:19" ht="24.6">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="15" t="s">
@@ -1136,13 +1171,13 @@
         <v>12</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="36.75">
+    <row r="12" spans="1:19" ht="24.6">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15" t="s">
@@ -1185,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="24.75">
+    <row r="13" spans="1:19" ht="24.6">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15" t="s">
@@ -1222,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" s="24" t="s">
         <v>12</v>
@@ -1265,13 +1300,13 @@
         <v>12</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="36.75">
+    <row r="15" spans="1:19" ht="36.6">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15" t="s">
@@ -1308,13 +1343,13 @@
         <v>12</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="36.75">
+    <row r="16" spans="1:19" ht="36.6">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="15" t="s">
@@ -1351,13 +1386,13 @@
         <v>12</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24.75">
+    <row r="17" spans="1:15" ht="24.6">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="15" t="s">
@@ -1394,13 +1429,13 @@
         <v>12</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="36.75">
+    <row r="18" spans="1:15" ht="36.6">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="15" t="s">
@@ -1437,13 +1472,13 @@
         <v>12</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.75">
+    <row r="19" spans="1:15" ht="24.6">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15" t="s">
@@ -1480,13 +1515,13 @@
         <v>12</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.75">
+    <row r="20" spans="1:15" ht="24.6">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15" t="s">
@@ -1523,13 +1558,13 @@
         <v>12</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="36.75">
+    <row r="21" spans="1:15" ht="24.6">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="15" t="s">
@@ -1566,13 +1601,13 @@
         <v>12</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O21" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.75">
+    <row r="22" spans="1:15" ht="24.6">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="15" t="s">
@@ -1609,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="36.75">
+    <row r="23" spans="1:15" ht="36.6">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="15" t="s">
@@ -1652,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="36.75">
+    <row r="24" spans="1:15" ht="36.6">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15" t="s">
@@ -1695,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="36.75">
+    <row r="25" spans="1:15" ht="36.6">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15" t="s">
@@ -1738,13 +1773,13 @@
         <v>12</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="36.75">
+    <row r="26" spans="1:15" ht="36.6">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="15" t="s">
@@ -1781,13 +1816,13 @@
         <v>12</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24.75">
+    <row r="27" spans="1:15" ht="24.6">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="15" t="s">
@@ -1830,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="36.75">
+    <row r="28" spans="1:15" ht="24.6">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="15" t="s">
@@ -1873,7 +1908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24.75">
+    <row r="29" spans="1:15" ht="24.6">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="15" t="s">
@@ -1916,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="36.75">
+    <row r="30" spans="1:15" ht="36.6">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15" t="s">
@@ -2002,7 +2037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="24.75">
+    <row r="32" spans="1:15" ht="24.6">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="15" t="s">
@@ -2045,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="24.75">
+    <row r="33" spans="1:15" ht="24.6">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15" t="s">
@@ -2088,7 +2123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="24.75">
+    <row r="34" spans="1:15" ht="24.6">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15" t="s">
@@ -2131,7 +2166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="48.75">
+    <row r="35" spans="1:15" ht="36.6">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="15" t="s">
@@ -2168,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O35" s="24" t="s">
         <v>12</v>
@@ -2193,7 +2228,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" spans="1:15" ht="72.75">
+    <row r="37" spans="1:15" ht="60.6">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="15" t="s">
@@ -2230,13 +2265,13 @@
         <v>12</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="24.75">
+    <row r="38" spans="1:15" ht="24.6">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="15" t="s">
@@ -2279,7 +2314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="24.75">
+    <row r="39" spans="1:15" ht="24.6">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="15" t="s">
@@ -2322,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="36.75">
+    <row r="40" spans="1:15" ht="36.6">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="15" t="s">
@@ -2365,7 +2400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="48.75">
+    <row r="41" spans="1:15" ht="48.6">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="15" t="s">
@@ -2408,7 +2443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="36.75">
+    <row r="42" spans="1:15" ht="36.6">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="15" t="s">
@@ -2445,13 +2480,13 @@
         <v>12</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O42" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="36.75">
+    <row r="43" spans="1:15" ht="36.6">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="15" t="s">
@@ -2488,13 +2523,13 @@
         <v>12</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O43" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="36.75">
+    <row r="44" spans="1:15" ht="36.6">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="15" t="s">
@@ -2531,13 +2566,13 @@
         <v>12</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O44" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48.75">
+    <row r="45" spans="1:15" ht="48.6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="15" t="s">
@@ -2580,7 +2615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="36.75">
+    <row r="46" spans="1:15" ht="36.6">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="15" t="s">
@@ -2617,13 +2652,13 @@
         <v>12</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O46" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="48.75">
+    <row r="47" spans="1:15" ht="48.6">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="15" t="s">
@@ -2666,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="36.75">
+    <row r="48" spans="1:15" ht="36.6">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="15" t="s">
@@ -2709,7 +2744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="60.75">
+    <row r="49" spans="1:15" ht="36.6">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="15" t="s">
@@ -2752,7 +2787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="36.75">
+    <row r="50" spans="1:15" ht="36.6">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="15" t="s">
@@ -2795,7 +2830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="84.75">
+    <row r="51" spans="1:15" ht="60.6">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="15" t="s">
@@ -2838,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="72.75">
+    <row r="52" spans="1:15" ht="48.6">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="15" t="s">
@@ -2881,7 +2916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="72.75">
+    <row r="53" spans="1:15" ht="60.6">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15" t="s">
@@ -2924,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="60.75">
+    <row r="54" spans="1:15" ht="48.6">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="15" t="s">
@@ -2967,7 +3002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="60.75">
+    <row r="55" spans="1:15" ht="60.6">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="15" t="s">
@@ -3016,12 +3051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
